--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -7,13 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="Web" r:id="rId3" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="183">
   <si>
     <t/>
   </si>
@@ -409,6 +408,159 @@
   </si>
   <si>
     <t>protocolErrorValidation</t>
+  </si>
+  <si>
+    <t>Sub Account</t>
+  </si>
+  <si>
+    <t>sct_AddBtn</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Add Sub Account')]//parent::button</t>
+  </si>
+  <si>
+    <t>sc_companyName</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Company Name')]//parent::div//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>sc_regCode</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Registration Code')]//parent::div//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>sc_companyNum</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Company Number')]//parent::div//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>sc_taxNum</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Tax Number')]//parent::div//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>sc_email</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Email')]//parent::div//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>sc_phoneNum</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Phone Number')]//parent::div//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>sc_whatsappNum</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'WhatsApp Number')]//parent::div//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>sc_country</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Country')]//parent::div//parent::div//child::div//child::button</t>
+  </si>
+  <si>
+    <t>sc_state</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'State/Region')]//parent::div//parent::div//child::div//child::button</t>
+  </si>
+  <si>
+    <t>scp_firstName</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'First Name')]//parent::div//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>scp_lastName</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Last Name')]//parent::div//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>scp_password</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Password')]//parent::div//parent::div//child::input</t>
+  </si>
+  <si>
+    <t>scp_confPassword</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(),'Password')]//parent::div//parent::div//child::input)[2]</t>
+  </si>
+  <si>
+    <t>scp_email</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(),'Email')]//parent::div//parent::div//child::input)[2]</t>
+  </si>
+  <si>
+    <t>scp_phoneNum</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(),'Phone Number')]//parent::div//parent::div//child::input)[2]</t>
+  </si>
+  <si>
+    <t>scp_whatsappNum</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(),'WhatsApp Number')]//parent::div//parent::div//child::input)[2]</t>
+  </si>
+  <si>
+    <t>scp_country</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(),'Country')]//parent::div//parent::div//child::div//child::button)[2]</t>
+  </si>
+  <si>
+    <t>scp_state</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(),'State/Region')]//parent::div//parent::div//child::div//child::button)[2]</t>
+  </si>
+  <si>
+    <t>sc_profileImage</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(),'click to browse')])[1]</t>
+  </si>
+  <si>
+    <t>sc_document</t>
+  </si>
+  <si>
+    <t>//p[normalize-space()='click to browse']</t>
+  </si>
+  <si>
+    <t>scp_companyLogo</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(),'click to browse')])[3]</t>
+  </si>
+  <si>
+    <t>scf_AddBtn</t>
+  </si>
+  <si>
+    <t>//button[@type='submit']//span[contains(text(),'Add Sub Account')]</t>
+  </si>
+  <si>
+    <t>click_customer</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[1]/div[1]/div/div/ul/li[3]/a</t>
+  </si>
+  <si>
+    <t>click_addCustomer</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div/div[1]/div[2]/button</t>
   </si>
 </sst>
 </file>
@@ -453,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1207,21 +1359,294 @@
         <v>7</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="187">
   <si>
     <t/>
   </si>
@@ -548,9 +548,6 @@
     <t>scf_AddBtn</t>
   </si>
   <si>
-    <t>//button[@type='submit']//span[contains(text(),'Add Sub Account')]</t>
-  </si>
-  <si>
     <t>click_customer</t>
   </si>
   <si>
@@ -561,6 +558,21 @@
   </si>
   <si>
     <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div/div[1]/div[2]/button</t>
+  </si>
+  <si>
+    <t>customerFilterDropdown</t>
+  </si>
+  <si>
+    <t>clickCustomerFilterActive</t>
+  </si>
+  <si>
+    <t>//*[@id="radix-:r2e:"]/div[2]</t>
+  </si>
+  <si>
+    <t>clickCustomerFilterInactive</t>
+  </si>
+  <si>
+    <t>//*[@id="radix-:r2e:"]/div[3]</t>
   </si>
 </sst>
 </file>
@@ -605,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1611,7 +1623,7 @@
         <v>177</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>7</v>
@@ -1619,10 +1631,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B93" t="s" s="0">
         <v>179</v>
-      </c>
-      <c r="B93" t="s" s="0">
-        <v>180</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>7</v>
@@ -1630,10 +1642,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s" s="0">
         <v>181</v>
-      </c>
-      <c r="B94" t="s" s="0">
-        <v>182</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>7</v>
@@ -1641,12 +1653,78 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C95" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="189">
   <si>
     <t/>
   </si>
@@ -566,13 +566,19 @@
     <t>clickCustomerFilterActive</t>
   </si>
   <si>
-    <t>//*[@id="radix-:r2e:"]/div[2]</t>
-  </si>
-  <si>
     <t>clickCustomerFilterInactive</t>
   </si>
   <si>
-    <t>//*[@id="radix-:r2e:"]/div[3]</t>
+    <t>activeStatusCustomer</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(),'Active')])</t>
+  </si>
+  <si>
+    <t>inactiveStatusCustomer</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(),'Inactive')])</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1673,7 @@
         <v>183</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>7</v>
@@ -1675,10 +1681,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>7</v>
@@ -1686,24 +1692,24 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="193">
   <si>
     <t/>
   </si>
@@ -579,6 +579,18 @@
   </si>
   <si>
     <t>(//span[contains(text(),'Inactive')])</t>
+  </si>
+  <si>
+    <t>clickCustomerAction</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div/div[2]/div/div/div[2]/div/div[2]/div/div[5]/div/div/button</t>
+  </si>
+  <si>
+    <t>clickCustomerDeactivate</t>
+  </si>
+  <si>
+    <t>clickCustomerActivate</t>
   </si>
 </sst>
 </file>
@@ -623,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1714,23 +1726,45 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B101" t="s" s="0">
+      <c r="B103" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C101" t="s" s="0">
+      <c r="C103" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="197">
   <si>
     <t/>
   </si>
@@ -584,13 +584,25 @@
     <t>clickCustomerAction</t>
   </si>
   <si>
-    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div/div[2]/div/div/div[2]/div/div[2]/div/div[5]/div/div/button</t>
+    <t>/html/body/div[1]/div[1]/main/div[1]/div[2]/div/div/div[2]/div/div/div[2]/div/div[2]/div/div[5]/div/div/button</t>
   </si>
   <si>
     <t>clickCustomerDeactivate</t>
   </si>
   <si>
     <t>clickCustomerActivate</t>
+  </si>
+  <si>
+    <t>customerSearchField</t>
+  </si>
+  <si>
+    <t>(//input[@placeholder='Search Customer'])</t>
+  </si>
+  <si>
+    <t>customerSearchResult</t>
+  </si>
+  <si>
+    <t>(//div[contains(text(),'Glen Maxwell')])</t>
   </si>
 </sst>
 </file>
@@ -635,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1759,13 +1771,24 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="237">
   <si>
     <t/>
   </si>
@@ -603,6 +603,126 @@
   </si>
   <si>
     <t>(//div[contains(text(),'Glen Maxwell')])</t>
+  </si>
+  <si>
+    <t>clickSystemConfiguration</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[1]/div[1]/div/div/ul/li[5]/a</t>
+  </si>
+  <si>
+    <t>clickClearSystemConfiguration</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[5]/button[1]</t>
+  </si>
+  <si>
+    <t>systemConfiguration</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/h1</t>
+  </si>
+  <si>
+    <t>movingStatusColor</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[2]/div[2]/div/div[1]/div[1]/input</t>
+  </si>
+  <si>
+    <t>stoppedStatusColor</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[2]/div[2]/div/div[2]/div[1]/input</t>
+  </si>
+  <si>
+    <t>idleStatusColor</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[2]/div[2]/div/div[3]/div[1]/input</t>
+  </si>
+  <si>
+    <t>offlineStatusColor</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[2]/div[2]/div/div[4]/div[1]/input</t>
+  </si>
+  <si>
+    <t>neverConnectedStatusColor</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[2]/div[2]/div/div[5]/div[1]/input</t>
+  </si>
+  <si>
+    <t>IgnitionDetectionBy</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[3]/div[2]/div/div[1]/div[2]/button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpeedDetectionBy </t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[3]/div[2]/div/div[2]/div[2]/button</t>
+  </si>
+  <si>
+    <t>MinMovingSpeed</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[3]/div[2]/div/div[3]/input</t>
+  </si>
+  <si>
+    <t>MinFuelDifferencetoDetectFuelFillings</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[3]/div[2]/div/div[4]/input</t>
+  </si>
+  <si>
+    <t>MinFuelDifferencetoDetectFuelThefts</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[3]/div[2]/div/div[5]/input</t>
+  </si>
+  <si>
+    <t>DetectFuelChangeAfterStop</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[3]/div[2]/div/div[6]/div[2]/button</t>
+  </si>
+  <si>
+    <t>TailColor</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[3]/div[2]/div/div[7]/div[1]/input</t>
+  </si>
+  <si>
+    <t>TailLength</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[3]/div[2]/div/div[8]/input</t>
+  </si>
+  <si>
+    <t>FuelMeasurement</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[4]/div[2]/div/div[1]/div[2]/button</t>
+  </si>
+  <si>
+    <t>LPrice</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[4]/div[2]/div/div[2]/input</t>
+  </si>
+  <si>
+    <t>CostPerLiter</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[4]/div[2]/div/div[3]/input</t>
+  </si>
+  <si>
+    <t>SystemConfigurationUpdateButton</t>
+  </si>
+  <si>
+    <t>//*[@id="root"]/div[1]/main/div[1]/div[2]/div/div[5]/button[2]</t>
   </si>
 </sst>
 </file>
@@ -647,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -663,6 +783,9 @@
       <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -674,6 +797,9 @@
       <c r="C2" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="D2" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
@@ -685,6 +811,9 @@
       <c r="C3" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D3" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
@@ -696,6 +825,9 @@
       <c r="C4" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D4" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
@@ -707,6 +839,9 @@
       <c r="C5" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D5" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
@@ -718,6 +853,9 @@
       <c r="C6" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D6" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
@@ -729,6 +867,9 @@
       <c r="C7" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D7" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
@@ -740,6 +881,9 @@
       <c r="C8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D8" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
@@ -751,6 +895,9 @@
       <c r="C9" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="D9" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
@@ -762,6 +909,9 @@
       <c r="C10" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D10" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
@@ -773,6 +923,9 @@
       <c r="C11" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D11" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
@@ -784,6 +937,9 @@
       <c r="C12" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D12" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
@@ -795,6 +951,9 @@
       <c r="C13" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D13" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
@@ -806,6 +965,9 @@
       <c r="C14" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D14" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
@@ -817,6 +979,9 @@
       <c r="C15" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D15" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
@@ -828,6 +993,9 @@
       <c r="C16" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D16" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
@@ -839,6 +1007,9 @@
       <c r="C17" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="D17" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
@@ -850,6 +1021,9 @@
       <c r="C18" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D18" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
@@ -861,6 +1035,9 @@
       <c r="C19" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D19" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
@@ -872,6 +1049,9 @@
       <c r="C20" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D20" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
@@ -883,6 +1063,9 @@
       <c r="C21" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D21" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
@@ -894,6 +1077,9 @@
       <c r="C22" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D22" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
@@ -905,6 +1091,9 @@
       <c r="C23" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D23" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
@@ -916,6 +1105,9 @@
       <c r="C24" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D24" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
@@ -927,6 +1119,9 @@
       <c r="C25" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D25" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
@@ -938,6 +1133,9 @@
       <c r="C26" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D26" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
@@ -949,6 +1147,9 @@
       <c r="C27" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D27" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
@@ -960,6 +1161,9 @@
       <c r="C28" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D28" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
@@ -971,6 +1175,9 @@
       <c r="C29" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="D29" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
@@ -982,6 +1189,9 @@
       <c r="C30" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D30" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
@@ -993,6 +1203,9 @@
       <c r="C31" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D31" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
@@ -1004,6 +1217,9 @@
       <c r="C32" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D32" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
@@ -1015,6 +1231,9 @@
       <c r="C33" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D33" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
@@ -1026,6 +1245,9 @@
       <c r="C34" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D34" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
@@ -1037,6 +1259,9 @@
       <c r="C35" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D35" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
@@ -1048,6 +1273,9 @@
       <c r="C36" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D36" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
@@ -1059,6 +1287,9 @@
       <c r="C37" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D37" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
@@ -1070,6 +1301,9 @@
       <c r="C38" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D38" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
@@ -1081,6 +1315,9 @@
       <c r="C39" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D39" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
@@ -1092,6 +1329,9 @@
       <c r="C40" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="D40" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
@@ -1103,6 +1343,9 @@
       <c r="C41" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D41" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
@@ -1114,6 +1357,9 @@
       <c r="C42" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D42" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
@@ -1125,6 +1371,9 @@
       <c r="C43" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D43" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
@@ -1136,6 +1385,9 @@
       <c r="C44" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D44" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
@@ -1147,6 +1399,9 @@
       <c r="C45" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D45" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
@@ -1158,6 +1413,9 @@
       <c r="C46" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D46" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
@@ -1169,6 +1427,9 @@
       <c r="C47" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D47" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
@@ -1180,6 +1441,9 @@
       <c r="C48" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D48" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
@@ -1191,6 +1455,9 @@
       <c r="C49" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D49" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
@@ -1202,6 +1469,9 @@
       <c r="C50" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D50" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
@@ -1213,6 +1483,9 @@
       <c r="C51" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D51" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
@@ -1224,6 +1497,9 @@
       <c r="C52" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D52" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
@@ -1235,6 +1511,9 @@
       <c r="C53" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D53" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
@@ -1246,6 +1525,9 @@
       <c r="C54" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D54" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
@@ -1257,6 +1539,9 @@
       <c r="C55" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D55" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
@@ -1268,6 +1553,9 @@
       <c r="C56" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D56" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
@@ -1279,6 +1567,9 @@
       <c r="C57" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D57" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
@@ -1290,6 +1581,9 @@
       <c r="C58" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D58" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
@@ -1301,6 +1595,9 @@
       <c r="C59" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D59" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
@@ -1312,6 +1609,9 @@
       <c r="C60" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D60" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
@@ -1323,6 +1623,9 @@
       <c r="C61" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D61" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
@@ -1334,6 +1637,9 @@
       <c r="C62" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D62" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
@@ -1345,6 +1651,9 @@
       <c r="C63" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D63" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
@@ -1356,6 +1665,9 @@
       <c r="C64" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D64" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
@@ -1367,6 +1679,9 @@
       <c r="C65" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D65" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
@@ -1378,6 +1693,9 @@
       <c r="C66" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D66" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
@@ -1389,6 +1707,9 @@
       <c r="C67" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D67" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
@@ -1400,11 +1721,17 @@
       <c r="C68" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D68" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
         <v>132</v>
       </c>
+      <c r="B69" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
@@ -1416,6 +1743,9 @@
       <c r="C70" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D70" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
@@ -1427,6 +1757,9 @@
       <c r="C71" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D71" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
@@ -1438,6 +1771,9 @@
       <c r="C72" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D72" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
@@ -1449,6 +1785,9 @@
       <c r="C73" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D73" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
@@ -1460,6 +1799,9 @@
       <c r="C74" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D74" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
@@ -1471,6 +1813,9 @@
       <c r="C75" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D75" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
@@ -1482,6 +1827,9 @@
       <c r="C76" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D76" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
@@ -1493,6 +1841,9 @@
       <c r="C77" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D77" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
@@ -1504,6 +1855,9 @@
       <c r="C78" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D78" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
@@ -1515,6 +1869,9 @@
       <c r="C79" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D79" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
@@ -1526,6 +1883,9 @@
       <c r="C80" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D80" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
@@ -1537,6 +1897,9 @@
       <c r="C81" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D81" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
@@ -1548,6 +1911,9 @@
       <c r="C82" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D82" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
@@ -1559,6 +1925,9 @@
       <c r="C83" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D83" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
@@ -1570,6 +1939,9 @@
       <c r="C84" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D84" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
@@ -1581,6 +1953,9 @@
       <c r="C85" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D85" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
@@ -1592,6 +1967,9 @@
       <c r="C86" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D86" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
@@ -1603,6 +1981,9 @@
       <c r="C87" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D87" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
@@ -1614,6 +1995,9 @@
       <c r="C88" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D88" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
@@ -1625,6 +2009,9 @@
       <c r="C89" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D89" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
@@ -1636,6 +2023,9 @@
       <c r="C90" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D90" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
@@ -1647,6 +2037,9 @@
       <c r="C91" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D91" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
@@ -1658,6 +2051,9 @@
       <c r="C92" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D92" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
@@ -1669,6 +2065,9 @@
       <c r="C93" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D93" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
@@ -1680,6 +2079,9 @@
       <c r="C94" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D94" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
@@ -1691,6 +2093,9 @@
       <c r="C95" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D95" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
@@ -1702,6 +2107,9 @@
       <c r="C96" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D96" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
@@ -1713,6 +2121,9 @@
       <c r="C97" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D97" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
@@ -1724,6 +2135,9 @@
       <c r="C98" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D98" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
@@ -1735,6 +2149,9 @@
       <c r="C99" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D99" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
@@ -1746,6 +2163,9 @@
       <c r="C100" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D100" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
@@ -1757,6 +2177,9 @@
       <c r="C101" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D101" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
@@ -1768,6 +2191,9 @@
       <c r="C102" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D102" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
@@ -1779,6 +2205,9 @@
       <c r="C103" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="D103" t="s" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
@@ -1789,6 +2218,401 @@
       </c>
       <c r="C104" t="s" s="0">
         <v>7</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
